--- a/res/Biological Chemistry.xlsx
+++ b/res/Biological Chemistry.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,36 +21,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="287">
-  <si>
-    <t xml:space="preserve">课程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">题型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">题干</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选项</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生物化学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单选题</t>
-  </si>
-  <si>
-    <t xml:space="preserve">酶的活性中心是指酶分子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">其中的必需基因〓其中的辅基〓与底物结合部位〓催化底物变成产物的部位〓结合底物并发挥催化作用的关键性三维结构区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">酶促反应的作用是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">改变反应的平衡常数〓保证产物比底物更稳定〓获得更多的自由能〓加速反应平衡到达的速率〓保证底物全部转变为产物</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="288">
+  <si>
+    <t>课程</t>
+  </si>
+  <si>
+    <t>题型</t>
+  </si>
+  <si>
+    <t>题干</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
+    <t>生物化学</t>
+  </si>
+  <si>
+    <t>单选题</t>
+  </si>
+  <si>
+    <t>酶的活性中心是指酶分子</t>
+  </si>
+  <si>
+    <t>其中的必需基因〓其中的辅基〓与底物结合部位〓催化底物变成产物的部位〓结合底物并发挥催化作用的关键性三维结构区</t>
+  </si>
+  <si>
+    <t>酶促反应的作用是</t>
+  </si>
+  <si>
+    <t>改变反应的平衡常数〓保证产物比底物更稳定〓获得更多的自由能〓加速反应平衡到达的速率〓保证底物全部转变为产物</t>
   </si>
   <si>
     <r>
@@ -62,7 +61,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">酶的K</t>
+      <t>酶的K</t>
     </r>
     <r>
       <rPr>
@@ -73,7 +72,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">m</t>
+      <t>m</t>
     </r>
     <r>
       <rPr>
@@ -83,110 +82,110 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">值大小与酶的</t>
+      <t>值大小与酶的</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">性质有关〓作用时间有关〓作用温度有关〓浓度有关〓最适pH有关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有机砷化合物对酶的抑制作用，可用下列哪种方法解毒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加入适量的半胱氨酸〓加入过量的GSH〓加入适量的甲硫氨酸〓加入适量的二巯基丙醇〓超滤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA分子的腺嘌呤含量为20%，则胞嘧啶的含量应为</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20%〓30%〓40%〓60%〓80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA一条链的部分碱基序列是TAGACTA，其互补链的碱基序列是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAGTCTA〓TAGATCT〓UAGUCUA〓TAGACTA〓ATCAGAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hnRNA是下列哪种RNA的前体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tRNA〓rRNA〓mRNA〓snRNA〓snoRNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">原核生物大亚基的rRNA组成有</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16SrRNA〓5．8SrRNA和23SrRNA〓5SrRNA、5．8SrRNA和28SrRNA〓5SrRNA和23SrRNA〓5．8SrRNA和28SrRNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">变性蛋白质的主要特点是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">粘度下降〓溶解度增加〓不易被蛋白酶水解〓生物学活性丧失〓容易被盐析出现沉淀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">含有两个羧基的氨基酸是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘氨酸〓色氨酸〓天冬氨酸〓赖氨酸〓丝氨酸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">血清清蛋白（pI为4．7）在下列哪种pH值时带正电荷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH4．0〓pH5．5〓pH6．5〓pH7．0〓pH8．9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关于蛋白质亚基的描述，哪项正确</t>
-  </si>
-  <si>
-    <t xml:space="preserve">整条多肽链呈螺旋结构〓两条以上多肽链形成三级结构〓两条以上多肽链与辅基结合成蛋白质〓每个亚基都有各自的三级结构〓每个亚基都具有生物学功能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有关模体的叙述正确的是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一个或数个球状或纤维状的区域〓由两个或三个具有二级结构的肽段形成的特殊的空间构象〓蛋白质三级结构中折叠较紧密的区域〓是一种特殊的二级结构 〓模体属于三级结构</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蛋白质吸收紫外光能力的大小，主要取决于</t>
-  </si>
-  <si>
-    <t xml:space="preserve">含硫氨基酸的含量多少〓脂肪族氨基酸的含量多少〓碱性氨基酸的含量多少〓芳香族氨基酸的含量多少〓亚氨基酸的含量多少</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有关亲水蛋白质的高分子性质的描述中有哪项是错误的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蛋白质在水溶液中的胶粒大小范围为1－100nm〓变性蛋白质的粘度增大〓蛋白质分子表面具有水化层〓它不能通过半透膜〓分子形状越对称，其粘度越大</t>
-  </si>
-  <si>
-    <t xml:space="preserve">糖酵解时，提供~P能使ADP生成ATP的一对代谢物是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-磷酸甘油醛及6-磷酸果糖〓1,3-二磷酸甘油酸及磷酸烯醇式丙酮酸〓3-磷酸甘油酸及6-磷酸葡萄糖〓1-磷酸葡萄糖及磷酸烯醇式丙酮酸〓1,6-双磷酸果糖及1,3-二磷酸甘油酸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产能过程不在线粒体的是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三羧酸循环〓脂肪酸β-氧化〓糖酵解〓电子传递〓氧化磷酸化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不涉及CO2的酶促反应是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-磷酸葡萄糖酸脱氢酶反应〓α-酮戊二酸脱氢酶反应〓异柠檬酸脱氢酶反应〓磷酸烯醇式丙酮酸羧激酶〓柠檬酸合酶反应</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关于TCA循环的叙述，不正确的是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在线粒体中进行〓是3大营养素的最终代谢通路〓乙酰CoA经TCA循环氧化时，可提供4对氢〓乙酰CoA进入TCA循环唯一就是氧化供能〓可为生物合成提供前体分子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引起血中丙酮酸含量升高是由于缺乏</t>
+    <t>性质有关〓作用时间有关〓作用温度有关〓浓度有关〓最适pH有关</t>
+  </si>
+  <si>
+    <t>有机砷化合物对酶的抑制作用，可用下列哪种方法解毒</t>
+  </si>
+  <si>
+    <t>加入适量的半胱氨酸〓加入过量的GSH〓加入适量的甲硫氨酸〓加入适量的二巯基丙醇〓超滤</t>
+  </si>
+  <si>
+    <t>DNA分子的腺嘌呤含量为20%，则胞嘧啶的含量应为</t>
+  </si>
+  <si>
+    <t>20%〓30%〓40%〓60%〓80%</t>
+  </si>
+  <si>
+    <t>DNA一条链的部分碱基序列是TAGACTA，其互补链的碱基序列是</t>
+  </si>
+  <si>
+    <t>TAGTCTA〓TAGATCT〓UAGUCUA〓TAGACTA〓ATCAGAT</t>
+  </si>
+  <si>
+    <t>hnRNA是下列哪种RNA的前体</t>
+  </si>
+  <si>
+    <t>tRNA〓rRNA〓mRNA〓snRNA〓snoRNA</t>
+  </si>
+  <si>
+    <t>原核生物大亚基的rRNA组成有</t>
+  </si>
+  <si>
+    <t>16SrRNA〓5．8SrRNA和23SrRNA〓5SrRNA、5．8SrRNA和28SrRNA〓5SrRNA和23SrRNA〓5．8SrRNA和28SrRNA</t>
+  </si>
+  <si>
+    <t>变性蛋白质的主要特点是</t>
+  </si>
+  <si>
+    <t>粘度下降〓溶解度增加〓不易被蛋白酶水解〓生物学活性丧失〓容易被盐析出现沉淀</t>
+  </si>
+  <si>
+    <t>含有两个羧基的氨基酸是</t>
+  </si>
+  <si>
+    <t>甘氨酸〓色氨酸〓天冬氨酸〓赖氨酸〓丝氨酸</t>
+  </si>
+  <si>
+    <t>血清清蛋白（pI为4．7）在下列哪种pH值时带正电荷</t>
+  </si>
+  <si>
+    <t>pH4．0〓pH5．5〓pH6．5〓pH7．0〓pH8．9</t>
+  </si>
+  <si>
+    <t>关于蛋白质亚基的描述，哪项正确</t>
+  </si>
+  <si>
+    <t>整条多肽链呈螺旋结构〓两条以上多肽链形成三级结构〓两条以上多肽链与辅基结合成蛋白质〓每个亚基都有各自的三级结构〓每个亚基都具有生物学功能</t>
+  </si>
+  <si>
+    <t>有关模体的叙述正确的是</t>
+  </si>
+  <si>
+    <t>一个或数个球状或纤维状的区域〓由两个或三个具有二级结构的肽段形成的特殊的空间构象〓蛋白质三级结构中折叠较紧密的区域〓是一种特殊的二级结构 〓模体属于三级结构</t>
+  </si>
+  <si>
+    <t>蛋白质吸收紫外光能力的大小，主要取决于</t>
+  </si>
+  <si>
+    <t>含硫氨基酸的含量多少〓脂肪族氨基酸的含量多少〓碱性氨基酸的含量多少〓芳香族氨基酸的含量多少〓亚氨基酸的含量多少</t>
+  </si>
+  <si>
+    <t>有关亲水蛋白质的高分子性质的描述中有哪项是错误的</t>
+  </si>
+  <si>
+    <t>蛋白质在水溶液中的胶粒大小范围为1－100nm〓变性蛋白质的粘度增大〓蛋白质分子表面具有水化层〓它不能通过半透膜〓分子形状越对称，其粘度越大</t>
+  </si>
+  <si>
+    <t>糖酵解时，提供~P能使ADP生成ATP的一对代谢物是</t>
+  </si>
+  <si>
+    <t>3-磷酸甘油醛及6-磷酸果糖〓1,3-二磷酸甘油酸及磷酸烯醇式丙酮酸〓3-磷酸甘油酸及6-磷酸葡萄糖〓1-磷酸葡萄糖及磷酸烯醇式丙酮酸〓1,6-双磷酸果糖及1,3-二磷酸甘油酸</t>
+  </si>
+  <si>
+    <t>产能过程不在线粒体的是</t>
+  </si>
+  <si>
+    <t>三羧酸循环〓脂肪酸β-氧化〓糖酵解〓电子传递〓氧化磷酸化</t>
+  </si>
+  <si>
+    <t>不涉及CO2的酶促反应是</t>
+  </si>
+  <si>
+    <t>6-磷酸葡萄糖酸脱氢酶反应〓α-酮戊二酸脱氢酶反应〓异柠檬酸脱氢酶反应〓磷酸烯醇式丙酮酸羧激酶〓柠檬酸合酶反应</t>
+  </si>
+  <si>
+    <t>关于TCA循环的叙述，不正确的是</t>
+  </si>
+  <si>
+    <t>在线粒体中进行〓是3大营养素的最终代谢通路〓乙酰CoA经TCA循环氧化时，可提供4对氢〓乙酰CoA进入TCA循环唯一就是氧化供能〓可为生物合成提供前体分子</t>
+  </si>
+  <si>
+    <t>引起血中丙酮酸含量升高是由于缺乏</t>
   </si>
   <si>
     <r>
@@ -197,7 +196,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">硫胺素〓叶酸〓吡哆醛〓钴胺素〓NADP</t>
+      <t>硫胺素〓叶酸〓吡哆醛〓钴胺素〓NADP</t>
     </r>
     <r>
       <rPr>
@@ -208,17 +207,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">+</t>
+      <t>+</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">关于Cori循环的叙述，不正确的是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肌收缩时，糖酵解生成乳酸〓乳酸经血液入肝〓肝内异生成糖〓不需要消耗能量〓可防止因乳酸堆积引起的酸中毒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">脂酸进行β-氧化时，不产生下列哪种物质</t>
+    <t>关于Cori循环的叙述，不正确的是</t>
+  </si>
+  <si>
+    <t>肌收缩时，糖酵解生成乳酸〓乳酸经血液入肝〓肝内异生成糖〓不需要消耗能量〓可防止因乳酸堆积引起的酸中毒</t>
+  </si>
+  <si>
+    <t>脂酸进行β-氧化时，不产生下列哪种物质</t>
   </si>
   <si>
     <r>
@@ -229,7 +228,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">NADH＋H</t>
+      <t>NADH＋H</t>
     </r>
     <r>
       <rPr>
@@ -240,7 +239,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">＋</t>
+      <t>＋</t>
     </r>
     <r>
       <rPr>
@@ -250,7 +249,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">〓FADH</t>
+      <t>〓FADH</t>
     </r>
     <r>
       <rPr>
@@ -261,7 +260,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -271,7 +270,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">〓H</t>
+      <t>〓H</t>
     </r>
     <r>
       <rPr>
@@ -282,7 +281,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -292,11 +291,11 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">O〓乙酰CoA〓脂酰CoA</t>
+      <t>O〓乙酰CoA〓脂酰CoA</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">与脂酸β-氧化无关的酶是</t>
+    <t>与脂酸β-氧化无关的酶是</t>
   </si>
   <si>
     <r>
@@ -307,7 +306,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">脂酰辅酶A脱氢酶〓β-羟脂酰辅酶A脱氢酶〓Δ</t>
+      <t>脂酰辅酶A脱氢酶〓β-羟脂酰辅酶A脱氢酶〓Δ</t>
     </r>
     <r>
       <rPr>
@@ -318,7 +317,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -328,29 +327,29 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">-烯酰辅酶A水化酶〓β-酮脂酰辅酶A硫解酶〓β-酮脂酰还原酶</t>
+      <t>-烯酰辅酶A水化酶〓β-酮脂酰辅酶A硫解酶〓β-酮脂酰还原酶</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">用于合成酮体的乙酰CoA主要来自</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氨基酸〓葡萄糖〓甘油〓脂酸〓胆固醇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">能合成前列腺素的脂酸是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">油酸〓亚油酸〓亚麻酸〓花生四烯酸〓硬脂酸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在体内参与脂酸合成的葡萄糖代谢的直接中间产物是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-磷酸甘油醛〓丙酮酸〓乙酰CoA〓磷酸二羟丙酮〓草酰乙酸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乙酰CoA羧化酶的辅基是</t>
+    <t>用于合成酮体的乙酰CoA主要来自</t>
+  </si>
+  <si>
+    <t>氨基酸〓葡萄糖〓甘油〓脂酸〓胆固醇</t>
+  </si>
+  <si>
+    <t>能合成前列腺素的脂酸是</t>
+  </si>
+  <si>
+    <t>油酸〓亚油酸〓亚麻酸〓花生四烯酸〓硬脂酸</t>
+  </si>
+  <si>
+    <t>在体内参与脂酸合成的葡萄糖代谢的直接中间产物是</t>
+  </si>
+  <si>
+    <t>3-磷酸甘油醛〓丙酮酸〓乙酰CoA〓磷酸二羟丙酮〓草酰乙酸</t>
+  </si>
+  <si>
+    <t>乙酰CoA羧化酶的辅基是</t>
   </si>
   <si>
     <r>
@@ -361,7 +360,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">HSCoA〓FH</t>
+      <t>HSCoA〓FH</t>
     </r>
     <r>
       <rPr>
@@ -372,7 +371,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">4</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -382,17 +381,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">〓FAD〓TPP〓生物素</t>
+      <t>〓FAD〓TPP〓生物素</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">乙酰CoA羧化酶的别构抑制剂是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柠檬酸〓异柠檬酸〓AMP〓乙酰CoA〓长链脂酰CoA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胆固醇在体内不能转变生成的是</t>
+    <t>乙酰CoA羧化酶的别构抑制剂是</t>
+  </si>
+  <si>
+    <t>柠檬酸〓异柠檬酸〓AMP〓乙酰CoA〓长链脂酰CoA</t>
+  </si>
+  <si>
+    <t>胆固醇在体内不能转变生成的是</t>
   </si>
   <si>
     <r>
@@ -403,7 +402,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">维生素D</t>
+      <t>维生素D</t>
     </r>
     <r>
       <rPr>
@@ -414,7 +413,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -424,29 +423,29 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">〓胆汁酸〓胆色素〓雌二醇〓睾丸酮</t>
+      <t>〓胆汁酸〓胆色素〓雌二醇〓睾丸酮</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">血浆脂蛋白的组成中甘油三酯含量最高的是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM〓VLDL〓LDL〓IDL〓HDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">参与内源性甘油三酯转运的血浆脂蛋白是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDL〓IDL〓LDL〓VLDL〓CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关于苹果酸-天冬氨酸穿梭的叙述正确的是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主要存在于脑和骨骼肌中〓线粒体中苹果酸脱氢酶的辅酶为FAD〓需要谷氨酰胺参与〓胞浆中NADH经此穿梭系统生成2．5分子ATP〓仅涉及氨基酸转运蛋白</t>
-  </si>
-  <si>
-    <t xml:space="preserve">只能传递电子的物质是</t>
+    <t>血浆脂蛋白的组成中甘油三酯含量最高的是</t>
+  </si>
+  <si>
+    <t>CM〓VLDL〓LDL〓IDL〓HDL</t>
+  </si>
+  <si>
+    <t>参与内源性甘油三酯转运的血浆脂蛋白是</t>
+  </si>
+  <si>
+    <t>HDL〓IDL〓LDL〓VLDL〓CM</t>
+  </si>
+  <si>
+    <t>关于苹果酸-天冬氨酸穿梭的叙述正确的是</t>
+  </si>
+  <si>
+    <t>主要存在于脑和骨骼肌中〓线粒体中苹果酸脱氢酶的辅酶为FAD〓需要谷氨酰胺参与〓胞浆中NADH经此穿梭系统生成2．5分子ATP〓仅涉及氨基酸转运蛋白</t>
+  </si>
+  <si>
+    <t>只能传递电子的物质是</t>
   </si>
   <si>
     <r>
@@ -457,7 +456,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">FAD〓FMN〓NAD</t>
+      <t>FAD〓FMN〓NAD</t>
     </r>
     <r>
       <rPr>
@@ -468,7 +467,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">+</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
@@ -478,17 +477,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">〓CoQ〓Cytc</t>
+      <t>〓CoQ〓Cytc</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">关于电子传递链的叙述，下列哪项是正确的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">抗坏血酸通过电子传递链氧化时P/O比值为1．5〓体内最重要的电子传递链为线粒体NADH电子传递链〓正常情况下，氧化磷酸化受阻时，电子传递不受影响〓氧化磷酸化可在胞质中进行〓电子从高电位组分向低电位组分传递</t>
-  </si>
-  <si>
-    <t xml:space="preserve">离体线粒体实验中测某一底物的P/O比值为0．68，该底物脱下的氢最可能在哪一部位进入电子传递链</t>
+    <t>关于电子传递链的叙述，下列哪项是正确的</t>
+  </si>
+  <si>
+    <t>抗坏血酸通过电子传递链氧化时P/O比值为1．5〓体内最重要的电子传递链为线粒体NADH电子传递链〓正常情况下，氧化磷酸化受阻时，电子传递不受影响〓氧化磷酸化可在胞质中进行〓电子从高电位组分向低电位组分传递</t>
+  </si>
+  <si>
+    <t>离体线粒体实验中测某一底物的P/O比值为0．68，该底物脱下的氢最可能在哪一部位进入电子传递链</t>
   </si>
   <si>
     <r>
@@ -499,7 +498,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">NAD</t>
+      <t>NAD</t>
     </r>
     <r>
       <rPr>
@@ -510,7 +509,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">+</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
@@ -520,50 +519,50 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">〓FAD〓Cytc〓FMN〓CoQ</t>
+      <t>〓FAD〓Cytc〓FMN〓CoQ</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">下列不属于一碳单位的是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">体内氨的主要去路是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合成嘌呤〓合成谷氨酰胺〓扩散入血〓合成氨基酸〓合成尿素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儿茶酚胺包括肾上腺素、去甲肾上腺素和</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甲状腺素〓5-羟色胺〓组胺〓多巴胺〓精胺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关于腐败作用叙述正确的是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是肠道细菌对蛋白质或蛋白质消化产物的作用〓主要是氨基酸脱羧基、脱氨基的分解作用〓主要在大肠进行〓腐败作用产生的都是有害物质〓是细菌本身的代谢过程，以有氧分解为主</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氨基甲酰磷酸含一种高能磷酸键，它属于</t>
-  </si>
-  <si>
-    <t xml:space="preserve">烯醇型磷酸酯〓酸酐〓胍基磷酸〓硫酯〓磷酸酐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">γ-氨基丁酸(GABA)是哪种氨基酸脱羧的产物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glu〓Asp〓Gln〓Asn〓Ser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提供嘌呤环N-3和N-9的化合物是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天冬氨酸〓甘氨酸〓丙氨酸〓丝氨酸〓谷氨酰胺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在嘧啶核苷酸合成中，合成氨甲酰磷酸的氮源是</t>
+    <t>下列不属于一碳单位的是</t>
+  </si>
+  <si>
+    <t>体内氨的主要去路是</t>
+  </si>
+  <si>
+    <t>合成嘌呤〓合成谷氨酰胺〓扩散入血〓合成氨基酸〓合成尿素</t>
+  </si>
+  <si>
+    <t>儿茶酚胺包括肾上腺素、去甲肾上腺素和</t>
+  </si>
+  <si>
+    <t>甲状腺素〓5-羟色胺〓组胺〓多巴胺〓精胺</t>
+  </si>
+  <si>
+    <t>关于腐败作用叙述正确的是</t>
+  </si>
+  <si>
+    <t>是肠道细菌对蛋白质或蛋白质消化产物的作用〓主要是氨基酸脱羧基、脱氨基的分解作用〓主要在大肠进行〓腐败作用产生的都是有害物质〓是细菌本身的代谢过程，以有氧分解为主</t>
+  </si>
+  <si>
+    <t>氨基甲酰磷酸含一种高能磷酸键，它属于</t>
+  </si>
+  <si>
+    <t>烯醇型磷酸酯〓酸酐〓胍基磷酸〓硫酯〓磷酸酐</t>
+  </si>
+  <si>
+    <t>γ-氨基丁酸(GABA)是哪种氨基酸脱羧的产物</t>
+  </si>
+  <si>
+    <t>Glu〓Asp〓Gln〓Asn〓Ser</t>
+  </si>
+  <si>
+    <t>提供嘌呤环N-3和N-9的化合物是</t>
+  </si>
+  <si>
+    <t>天冬氨酸〓甘氨酸〓丙氨酸〓丝氨酸〓谷氨酰胺</t>
+  </si>
+  <si>
+    <t>在嘧啶核苷酸合成中，合成氨甲酰磷酸的氮源是</t>
   </si>
   <si>
     <r>
@@ -574,7 +573,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">NH</t>
+      <t>NH</t>
     </r>
     <r>
       <rPr>
@@ -585,7 +584,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -595,59 +594,59 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">〓Asp〓Glu〓Gln〓Asn</t>
+      <t>〓Asp〓Glu〓Gln〓Asn</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">氮杂丝氨酸能干扰或阻断核苷酸合成是因为其化学结构类似于</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丝氨酸〓谷氨酸〓天冬氨酸〓谷氨酰胺〓天冬酰胺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">激素发挥调节作用必需与靶细胞结合的物质是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">受体〓配体〓核〓质膜〓内质网膜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">长期饥饿时大脑的能量来源主要是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">葡萄糖〓氨基酸〓甘油〓酮体〓糖原</t>
-  </si>
-  <si>
-    <t xml:space="preserve">短期饥饿，糖异生的主要原料是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘油〓α-磷酸甘油〓丙氨酸〓丙酮酸〓乳酸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关于酶含量调节的叙述，错误的是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">属细胞水平的调节〓属于快速调节〓底物常诱导酶的合成〓产物常遏制酶的合成〓激素或药物也可诱导某些酶的合成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">饥饿时，分泌减少的激素是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胰高血糖素〓胰岛素〓糖皮质激素〓去甲肾上腺素〓肾上腺素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">短期饥饿时，血糖浓度的维持主要靠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肌糖原分解〓组织蛋白分解〓肝的糖异生作用〓肾的糖异生作用〓组织对葡萄糖的利用降低</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下列关于胆汁酸的叙述哪一项是错误的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从胆固醇生成胆酸的限速酶是7α－羟化酶〓胆酸与甘氨酸或牛磺酸的结合发生在小肠〓次级胆汁酸在其被肠粘膜重吸收入肝之前脱结合〓鹅脱氧胆酸与胆酸之差别在于前者的C－12位未被羟化〓初级胆汁酸在肠内失去其C－7位上的羟基</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胆红素在血液中主要与哪一种血浆蛋白结合运输</t>
+    <t>氮杂丝氨酸能干扰或阻断核苷酸合成是因为其化学结构类似于</t>
+  </si>
+  <si>
+    <t>丝氨酸〓谷氨酸〓天冬氨酸〓谷氨酰胺〓天冬酰胺</t>
+  </si>
+  <si>
+    <t>激素发挥调节作用必需与靶细胞结合的物质是</t>
+  </si>
+  <si>
+    <t>受体〓配体〓核〓质膜〓内质网膜</t>
+  </si>
+  <si>
+    <t>长期饥饿时大脑的能量来源主要是</t>
+  </si>
+  <si>
+    <t>葡萄糖〓氨基酸〓甘油〓酮体〓糖原</t>
+  </si>
+  <si>
+    <t>短期饥饿，糖异生的主要原料是</t>
+  </si>
+  <si>
+    <t>甘油〓α-磷酸甘油〓丙氨酸〓丙酮酸〓乳酸</t>
+  </si>
+  <si>
+    <t>关于酶含量调节的叙述，错误的是</t>
+  </si>
+  <si>
+    <t>属细胞水平的调节〓属于快速调节〓底物常诱导酶的合成〓产物常遏制酶的合成〓激素或药物也可诱导某些酶的合成</t>
+  </si>
+  <si>
+    <t>饥饿时，分泌减少的激素是</t>
+  </si>
+  <si>
+    <t>胰高血糖素〓胰岛素〓糖皮质激素〓去甲肾上腺素〓肾上腺素</t>
+  </si>
+  <si>
+    <t>短期饥饿时，血糖浓度的维持主要靠</t>
+  </si>
+  <si>
+    <t>肌糖原分解〓组织蛋白分解〓肝的糖异生作用〓肾的糖异生作用〓组织对葡萄糖的利用降低</t>
+  </si>
+  <si>
+    <t>下列关于胆汁酸的叙述哪一项是错误的</t>
+  </si>
+  <si>
+    <t>从胆固醇生成胆酸的限速酶是7α－羟化酶〓胆酸与甘氨酸或牛磺酸的结合发生在小肠〓次级胆汁酸在其被肠粘膜重吸收入肝之前脱结合〓鹅脱氧胆酸与胆酸之差别在于前者的C－12位未被羟化〓初级胆汁酸在肠内失去其C－7位上的羟基</t>
+  </si>
+  <si>
+    <t>胆红素在血液中主要与哪一种血浆蛋白结合运输</t>
   </si>
   <si>
     <r>
@@ -658,7 +657,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">α</t>
+      <t>α</t>
     </r>
     <r>
       <rPr>
@@ -669,7 +668,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -679,7 +678,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">球蛋白〓α</t>
+      <t>球蛋白〓α</t>
     </r>
     <r>
       <rPr>
@@ -690,7 +689,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -700,47 +699,47 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">球蛋白〓清蛋白〓β-球蛋白〓γ-球蛋白</t>
+      <t>球蛋白〓清蛋白〓β-球蛋白〓γ-球蛋白</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">冈崎片段是指</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA模板上的不连续DNA片段〓随从链上生成的不连续DNA片段〓前导链上生成的不连续DNA片段〓引物酶催化合成的RNA片段〓由DNA连接酶合成的DNA片段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真核生物DNA复制过程中，起即时校读功能的聚合酶是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA-polα〓DNA-polβ〓DNA-polγ〓DNA-polδ〓DNA-polε</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klenow片段是指</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polⅠ之大片段，无DNA聚合酶活性〓polⅠ之小片段，有DNA聚合酶活性〓polⅡ之大片段，有DNA聚合酶活性 〓polⅢ之大片段，有DNA聚合酶活性〓polⅠ之大片段，有DNA聚合酶活性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不对称转录是指</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同一mRNA分别来自两条DNA链〓两相邻的基因正好位于两条不同的DNA链〓DNA分子中有一条链不含任何结构基因〓两条DNA链均可作为模板链，不同基因的模板链不一定在同一条DNA链上〓RNA聚合酶使DNA的两条链同时转录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">能特异性抑制原核细胞mRNA聚合酶的是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">假尿嘧啶〓鹅膏蕈碱〓亚硝酸盐〓氯霉素〓利福平</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA作为转录产物，其5＇端常见的起始核苷酸是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A或G〓C或U〓pppG或pppA〓pppC或pppU〓无一定规律</t>
-  </si>
-  <si>
-    <t xml:space="preserve">转录的必需因子不包括</t>
+    <t>冈崎片段是指</t>
+  </si>
+  <si>
+    <t>DNA模板上的不连续DNA片段〓随从链上生成的不连续DNA片段〓前导链上生成的不连续DNA片段〓引物酶催化合成的RNA片段〓由DNA连接酶合成的DNA片段</t>
+  </si>
+  <si>
+    <t>真核生物DNA复制过程中，起即时校读功能的聚合酶是</t>
+  </si>
+  <si>
+    <t>DNA-polα〓DNA-polβ〓DNA-polγ〓DNA-polδ〓DNA-polε</t>
+  </si>
+  <si>
+    <t>Klenow片段是指</t>
+  </si>
+  <si>
+    <t>polⅠ之大片段，无DNA聚合酶活性〓polⅠ之小片段，有DNA聚合酶活性〓polⅡ之大片段，有DNA聚合酶活性 〓polⅢ之大片段，有DNA聚合酶活性〓polⅠ之大片段，有DNA聚合酶活性</t>
+  </si>
+  <si>
+    <t>不对称转录是指</t>
+  </si>
+  <si>
+    <t>同一mRNA分别来自两条DNA链〓两相邻的基因正好位于两条不同的DNA链〓DNA分子中有一条链不含任何结构基因〓两条DNA链均可作为模板链，不同基因的模板链不一定在同一条DNA链上〓RNA聚合酶使DNA的两条链同时转录</t>
+  </si>
+  <si>
+    <t>能特异性抑制原核细胞mRNA聚合酶的是</t>
+  </si>
+  <si>
+    <t>假尿嘧啶〓鹅膏蕈碱〓亚硝酸盐〓氯霉素〓利福平</t>
+  </si>
+  <si>
+    <t>RNA作为转录产物，其5＇端常见的起始核苷酸是</t>
+  </si>
+  <si>
+    <t>A或G〓C或U〓pppG或pppA〓pppC或pppU〓无一定规律</t>
+  </si>
+  <si>
+    <t>转录的必需因子不包括</t>
   </si>
   <si>
     <r>
@@ -751,7 +750,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">模板〓Mg</t>
+      <t>模板〓Mg</t>
     </r>
     <r>
       <rPr>
@@ -762,7 +761,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">2+</t>
+      <t>2+</t>
     </r>
     <r>
       <rPr>
@@ -772,458 +771,458 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">〓DNA拓扑异构酶〓dNTP〓DNA指导的RNA聚合酶</t>
+      <t>〓DNA拓扑异构酶〓dNTP〓DNA指导的RNA聚合酶</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">在转录的延长过程中，不存在</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大量的DNA-RNA杂交体〓核心酶构象发生改变〓转录空泡〓同一DNA链上，可有相当多的RNA聚合酶在同时催化转录〓DNA双螺旋解旋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tRNA分子上3＇端的序列功能为</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辨认mRNA上的密码子〓提供-OH基与氨基酸结合〓形成局部双链〓被剪接的组分〓供应能量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多个核糖体与mRNA聚合后的结构称为</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plasmid〓monosome〓polysome〓splicesome〓genome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蛋白质合成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">由mRNA的3＇端向5＇端进行〓由N端向C端进行〓由C端向N端进行〓由28SrRNA指导〓由4SrRNA指导</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tRNA的叙述中，哪一项不恰当</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tRNA在蛋白质合成中转运活化了的氨基酸〓起始tRNA在真核原核生物中仅用于蛋白质合成的起始作用〓除起始tRNA外，其余tRNA是蛋白质合成延伸中起作用，统称为延伸tRNA〓原核与真核生物中的起始tRNA均为fMet-tRNA〓tRNA对其转运的氨基酸具有选择性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">哺乳动物细胞中蛋白质合成的主要部位是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">细胞核〓高尔基复合体〓核仁〓粗面内质网〓溶酶体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">能出现在蛋白质分子中的下列氨基酸哪一种没有遗传密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色氨酸〓谷氨酸〓甲硫氨酸〓组氨酸〓羟脯氨酸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四环素族抑制细菌蛋白质合成的机制是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">改变构象引起读码错误〓抑制转肽酶活性〓与EFG-GTP结合，抑制肽链延长〓与核蛋白体大亚基结合〓抑制氨基酰-tRNA与小亚基结合</t>
-  </si>
-  <si>
-    <t xml:space="preserve">延伸进程中肽链形成叙述中哪项不恰当</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肽酰基从P位点的转移到A位点，同时形成一个新的肽键，P位点上的tRNA无负载，而A位点的tRNA上肽键延长了一个氨基酸残基〓肽键形成是由肽酰转移酶作用下完成的，此种酶属于核糖体的组成成分〓嘌呤霉素对蛋白质合成的抑制作用，发生在转肽过程这一步〓肽酰基是从A位点转移到P位点，同时形成一个新肽键，此时A位点tRNA空载，而P位点的tRNA上肽链延长了一个氨基酸残基〓多肽链合成都是从N端向C端方向延伸的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">摆动配对是指下列哪个碱基之间配对不严格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">反密码子第一个碱基与密码子第三个碱基〓反密码子第三个碱基与密码子第一个碱基〓反密码子和密码子第一个碱基〓反密码子和密码子第三个碱基〓以上都不是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">管家基因的表达</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不受环境因素影响 〓较少受环境因素影响〓极少受环境因素影响 〓有时受，也有时不受环境因素影响〓特别受环境因素影响</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有关乳糖操纵子的论述，哪一项是错误的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乳糖操纵子是第一个发现的操纵子〓乳糖操纵子由三个结构基因及其上游的启动序列和操纵序列组成〓乳糖操纵子的调控因子有阻遏蛋白、cAMP和诱导剂等〓乳糖操纵子的直接诱导剂是乳糖〓无葡萄糖有乳糖时乳糖操纵子被诱导</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在乳糖操纵子的表达中，乳糖的作用是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作为辅阻遏物结合于阻遏物〓作为阻遏物结合于操纵基因〓使阻遏物变构而失去结合DNA的能力〓抑制阻遏基因的转录〓引物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">增强子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是特异性高的转录调控因子〓是真核生物细胞核内的组蛋白〓原核生物的启动序列在真核生物中就称为增强子〓是一些较短的能增强转录的DNA重复序列〓在结构基因的5’端的DNA序列</t>
-  </si>
-  <si>
-    <t xml:space="preserve">确切地说，cDNA文库包含</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一个物种的全部基因信息〓一个物种的全部mRNA信息〓一个生物体组织或细胞的全部基因信息〓一个生物体组织或细胞所表达mRNA信息〓一个生物体组织或细胞的全部mRNA信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重组DNA技术常用的限制性核酸内切酶为</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ⅰ类酶〓Ⅱ类酶〓Ⅲ类酶〓Ⅳ类酶〓Ⅴ类酶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下面有关激素的叙述，正确的是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一定是由特殊分化的内分泌腺分泌〓与相应的受体共价结合，具有高亲和力〓与受体的结合是可逆的〓激素作用的发挥与其浓度必须呈正比〓激素只作用于细胞膜表面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cGMP能激活</t>
-  </si>
-  <si>
-    <t xml:space="preserve">磷脂酶C〓蛋白激酶A〓蛋白激酶G〓酪氨酸蛋白激酶〓蛋白激酶C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G蛋白是指</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蛋白激酶A〓鸟苷酸环化酶〓蛋白激酶G〓Grb－2结合蛋白〓鸟苷酸结合蛋白</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在信息传递过程中不产生第二信使的是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肾上腺素〓胰岛素〓甲状腺素〓促肾上腺皮质激素〓促性腺激素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下列哪种受体常与G蛋白偶联</t>
-  </si>
-  <si>
-    <t xml:space="preserve">环型受体〓蛇型受体〓催化型受体〓非催化型受体〓胞内受体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名词解释</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自身磷酸化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cDNA文库</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回文结构</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基因组文库</t>
-  </si>
-  <si>
-    <t xml:space="preserve">克隆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">转录因子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">剪接</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物质代谢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物质代谢调节</t>
-  </si>
-  <si>
-    <t xml:space="preserve">整体水平调节</t>
-  </si>
-  <si>
-    <t xml:space="preserve">细胞水平调节</t>
-  </si>
-  <si>
-    <t xml:space="preserve">应激</t>
-  </si>
-  <si>
-    <t xml:space="preserve">半保留复制</t>
-  </si>
-  <si>
-    <t xml:space="preserve">领头链</t>
-  </si>
-  <si>
-    <t xml:space="preserve">随从链</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆转录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">癌基因</t>
-  </si>
-  <si>
-    <t xml:space="preserve">必需脂酸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">补救合成途径</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氮平衡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">腐败作用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一碳单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呼吸链</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P/O比值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP合酶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全酶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">米氏常数Km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同工酶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">必需基团</t>
-  </si>
-  <si>
-    <t xml:space="preserve">糖异生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cori循环</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蛋白质的一级结构</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蛋白质的等电点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肽键</t>
-  </si>
-  <si>
-    <t xml:space="preserve">亚基</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蛋白质组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">核酸酶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基因组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">核小体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">填空题</t>
-  </si>
-  <si>
-    <t xml:space="preserve">酶的调节可分为()调节和()调节两方面。酶最常见的化学修饰是()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不同蛋白质的含()量颇为相近，平均含量为()%。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丙酮酸脱氢酶复合体的辅酶有()、()、()、() 和() 。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">磷酸戊糖途径的主要生理意义在于生成()和() 。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-磷酸果糖激酶-1的变构激活剂有()、()、()和() 。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">脂酸β-氧化的4步反应是()、()、()和()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乙酰CoA羧化酶的辅酶是()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">催化血浆胆固醇酯化的酶是()，催化细胞内胆固醇酯化的酶是()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">嘌呤核苷酸的从头合成在()中进行，反应比较复杂，可分为两个阶段，首先合成()，然后其转变为()与()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在嘌呤核苷酸从头合成中最重要的调节酶是()酶和()酶。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">体内ATP与GTP的生成交叉调节，以维持二者的平衡。这种调节是由于：IMP→AMP需要()；而IMP→GMP需要()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氨甲喋呤（MTX）干扰核苷酸合成是因为其结构与()相似，并抑制()酶，进而影响一碳单位代谢。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在体内积聚可引起痛风症的物质是()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物质代谢调节可分为三级水平，即()水平调节、()水平调节和()水平调节。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三大营养物质共同的中间代谢产物是()，它们最后分解的共同代谢途径是()，释出的能量均以()的形式利用。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关键酶是指反应体系中催化()向()平衡反应的酶；催化的反应速度()；其活性可决定反应的()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合成血红素的()和()过程均在线粒体中进行，而()过程则在胞液中进行。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">参与DNA复制的主要酶类是()、()、()、()、()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真核生物帽子结合蛋白复合物包括()、()、()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">密码子与反密码子的摆动配对发生在密码子的()位碱基和反密码子的()碱基。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">细胞内进行RNA转录的场所是()，RNA链合成的方向是()。转录时，DNA基因双链中只有一链能转录合成RNA，此链称为()，另一条链无转录功能，称为() 。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结构基因中具有表达活性，能编码相应氨基酸的序列称为()；无表达活性，不能编码相应氨基酸的序列称为()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA转录过程分为()、()和()三个阶段。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA上某段顺序为5＇-ACTAGTCAG-3＇，转录后的mRNA上相应的碱基顺序为()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">原核细胞中，多数转录起始区的-35bp区都有一组()序列，而在-10bp附近则有一组()序列。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ribozyme具有酶活性，这是在研究()的rRNA剪接中发现的。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">哺乳动物核核糖体大亚基的沉降系数为() 。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRNA转录后剪接加工是除去() ，把邻近的()连接起来。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基因表达的终产物可以是()，也可以是()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基因表达的方式按对刺激的反应性可分()表达与()表达。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">决定基因转录基础频率的DNA元件是()，它是()酶的结合位点。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">原核生物大多数基因表达调控是通过()机制实现的。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lac阻遏蛋白由()基因编码，结合()序列对Lac操纵子起阻遏作用。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通常情况下，真核生物细胞只有()%的基因处于有转录活性的状态。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可充当克隆载体的DNA分子有()、() 和()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一个完整的基因克隆过程应包括：目的基因的获取，()的选择与改选，()的连接，重组DNA分子()，筛选出感兴趣的()。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">根据重组DNA时所采用的载体性质不同，导入重组DNA分子的方式有()、()和()等。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重组体的筛选中的直接选择法主要有()、() 和() 等。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外源性DNA离开染色体是不能复制的。将()与()连接，构成成重组DNA分子后，外源性DNA则可被复制。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">酶含量的调节主要通过改变酶蛋白()或()以调节细胞内酶的含量，从而调节代谢的速度和强度。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">问答题</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述细胞内小分子第二信使的共同特点。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基因重组与基因工程所用载体应具备哪些条件?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述重组DNA技术的基本步骤。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述DNA克隆的基本过程。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在真核表达体系中，常用于细胞转染的方法有哪些?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">目前获取目的基因的主要途径有哪些?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述外源性基因与载体的主要连接方式。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一种可靠的DNA诊断学方法应符合哪些条件?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述lac的调节机制。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述反式作用因子的结构和作用特点。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述真核生物基因组的结构特点。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">试述参与RNA转录的成分及其在转录中的作用。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">试述原核生物的两种终止转录的方式。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">核酸酶与核酶有何不同。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述酶变构调节的主要特征、机制及重要生理意义。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述酶变构调节与化学修饰调节的异同点。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA半保留复制的方式是通过什么实验证明的？请写出该实验的详细过程。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">原核生物DNA复制过程中都需要哪些酶和蛋白因子？并简要叙述它们在复制过程中说的功能。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">请举例说明DNA损伤突变的主要形式。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA损伤修复的方式有哪些？人体内最主要的方式是哪个？并叙述其过程。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">核苷酸在体内有哪些生理的功能？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述PRPP在核苷酸合成中的重要作用。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比较氨基甲酰磷酸合成酶Ⅰ、Ⅱ的异同。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">血浆脂蛋白的分类、来源及主要功能。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述磷脂酶的种类及其作用特点。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乙酰CoA在脂类代谢中的来源与去路。</t>
+    <t>在转录的延长过程中，不存在</t>
+  </si>
+  <si>
+    <t>大量的DNA-RNA杂交体〓核心酶构象发生改变〓转录空泡〓同一DNA链上，可有相当多的RNA聚合酶在同时催化转录〓DNA双螺旋解旋</t>
+  </si>
+  <si>
+    <t>tRNA分子上3＇端的序列功能为</t>
+  </si>
+  <si>
+    <t>辨认mRNA上的密码子〓提供-OH基与氨基酸结合〓形成局部双链〓被剪接的组分〓供应能量</t>
+  </si>
+  <si>
+    <t>多个核糖体与mRNA聚合后的结构称为</t>
+  </si>
+  <si>
+    <t>plasmid〓monosome〓polysome〓splicesome〓genome</t>
+  </si>
+  <si>
+    <t>蛋白质合成</t>
+  </si>
+  <si>
+    <t>由mRNA的3＇端向5＇端进行〓由N端向C端进行〓由C端向N端进行〓由28SrRNA指导〓由4SrRNA指导</t>
+  </si>
+  <si>
+    <t>tRNA的叙述中，哪一项不恰当</t>
+  </si>
+  <si>
+    <t>tRNA在蛋白质合成中转运活化了的氨基酸〓起始tRNA在真核原核生物中仅用于蛋白质合成的起始作用〓除起始tRNA外，其余tRNA是蛋白质合成延伸中起作用，统称为延伸tRNA〓原核与真核生物中的起始tRNA均为fMet-tRNA〓tRNA对其转运的氨基酸具有选择性</t>
+  </si>
+  <si>
+    <t>哺乳动物细胞中蛋白质合成的主要部位是</t>
+  </si>
+  <si>
+    <t>细胞核〓高尔基复合体〓核仁〓粗面内质网〓溶酶体</t>
+  </si>
+  <si>
+    <t>能出现在蛋白质分子中的下列氨基酸哪一种没有遗传密码</t>
+  </si>
+  <si>
+    <t>色氨酸〓谷氨酸〓甲硫氨酸〓组氨酸〓羟脯氨酸</t>
+  </si>
+  <si>
+    <t>四环素族抑制细菌蛋白质合成的机制是</t>
+  </si>
+  <si>
+    <t>改变构象引起读码错误〓抑制转肽酶活性〓与EFG-GTP结合，抑制肽链延长〓与核蛋白体大亚基结合〓抑制氨基酰-tRNA与小亚基结合</t>
+  </si>
+  <si>
+    <t>延伸进程中肽链形成叙述中哪项不恰当</t>
+  </si>
+  <si>
+    <t>肽酰基从P位点的转移到A位点，同时形成一个新的肽键，P位点上的tRNA无负载，而A位点的tRNA上肽键延长了一个氨基酸残基〓肽键形成是由肽酰转移酶作用下完成的，此种酶属于核糖体的组成成分〓嘌呤霉素对蛋白质合成的抑制作用，发生在转肽过程这一步〓肽酰基是从A位点转移到P位点，同时形成一个新肽键，此时A位点tRNA空载，而P位点的tRNA上肽链延长了一个氨基酸残基〓多肽链合成都是从N端向C端方向延伸的</t>
+  </si>
+  <si>
+    <t>摆动配对是指下列哪个碱基之间配对不严格</t>
+  </si>
+  <si>
+    <t>反密码子第一个碱基与密码子第三个碱基〓反密码子第三个碱基与密码子第一个碱基〓反密码子和密码子第一个碱基〓反密码子和密码子第三个碱基〓以上都不是</t>
+  </si>
+  <si>
+    <t>管家基因的表达</t>
+  </si>
+  <si>
+    <t>不受环境因素影响 〓较少受环境因素影响〓极少受环境因素影响 〓有时受，也有时不受环境因素影响〓特别受环境因素影响</t>
+  </si>
+  <si>
+    <t>有关乳糖操纵子的论述，哪一项是错误的</t>
+  </si>
+  <si>
+    <t>乳糖操纵子是第一个发现的操纵子〓乳糖操纵子由三个结构基因及其上游的启动序列和操纵序列组成〓乳糖操纵子的调控因子有阻遏蛋白、cAMP和诱导剂等〓乳糖操纵子的直接诱导剂是乳糖〓无葡萄糖有乳糖时乳糖操纵子被诱导</t>
+  </si>
+  <si>
+    <t>在乳糖操纵子的表达中，乳糖的作用是</t>
+  </si>
+  <si>
+    <t>作为辅阻遏物结合于阻遏物〓作为阻遏物结合于操纵基因〓使阻遏物变构而失去结合DNA的能力〓抑制阻遏基因的转录〓引物</t>
+  </si>
+  <si>
+    <t>增强子</t>
+  </si>
+  <si>
+    <t>是特异性高的转录调控因子〓是真核生物细胞核内的组蛋白〓原核生物的启动序列在真核生物中就称为增强子〓是一些较短的能增强转录的DNA重复序列〓在结构基因的5’端的DNA序列</t>
+  </si>
+  <si>
+    <t>确切地说，cDNA文库包含</t>
+  </si>
+  <si>
+    <t>一个物种的全部基因信息〓一个物种的全部mRNA信息〓一个生物体组织或细胞的全部基因信息〓一个生物体组织或细胞所表达mRNA信息〓一个生物体组织或细胞的全部mRNA信息</t>
+  </si>
+  <si>
+    <t>重组DNA技术常用的限制性核酸内切酶为</t>
+  </si>
+  <si>
+    <t>Ⅰ类酶〓Ⅱ类酶〓Ⅲ类酶〓Ⅳ类酶〓Ⅴ类酶</t>
+  </si>
+  <si>
+    <t>下面有关激素的叙述，正确的是</t>
+  </si>
+  <si>
+    <t>一定是由特殊分化的内分泌腺分泌〓与相应的受体共价结合，具有高亲和力〓与受体的结合是可逆的〓激素作用的发挥与其浓度必须呈正比〓激素只作用于细胞膜表面</t>
+  </si>
+  <si>
+    <t>cGMP能激活</t>
+  </si>
+  <si>
+    <t>磷脂酶C〓蛋白激酶A〓蛋白激酶G〓酪氨酸蛋白激酶〓蛋白激酶C</t>
+  </si>
+  <si>
+    <t>G蛋白是指</t>
+  </si>
+  <si>
+    <t>蛋白激酶A〓鸟苷酸环化酶〓蛋白激酶G〓Grb－2结合蛋白〓鸟苷酸结合蛋白</t>
+  </si>
+  <si>
+    <t>在信息传递过程中不产生第二信使的是</t>
+  </si>
+  <si>
+    <t>肾上腺素〓胰岛素〓甲状腺素〓促肾上腺皮质激素〓促性腺激素</t>
+  </si>
+  <si>
+    <t>下列哪种受体常与G蛋白偶联</t>
+  </si>
+  <si>
+    <t>环型受体〓蛇型受体〓催化型受体〓非催化型受体〓胞内受体</t>
+  </si>
+  <si>
+    <t>名词解释</t>
+  </si>
+  <si>
+    <t>自身磷酸化</t>
+  </si>
+  <si>
+    <t>cDNA文库</t>
+  </si>
+  <si>
+    <t>回文结构</t>
+  </si>
+  <si>
+    <t>基因组文库</t>
+  </si>
+  <si>
+    <t>克隆</t>
+  </si>
+  <si>
+    <t>转录因子</t>
+  </si>
+  <si>
+    <t>剪接</t>
+  </si>
+  <si>
+    <t>物质代谢</t>
+  </si>
+  <si>
+    <t>物质代谢调节</t>
+  </si>
+  <si>
+    <t>整体水平调节</t>
+  </si>
+  <si>
+    <t>细胞水平调节</t>
+  </si>
+  <si>
+    <t>应激</t>
+  </si>
+  <si>
+    <t>半保留复制</t>
+  </si>
+  <si>
+    <t>领头链</t>
+  </si>
+  <si>
+    <t>随从链</t>
+  </si>
+  <si>
+    <t>逆转录</t>
+  </si>
+  <si>
+    <t>癌基因</t>
+  </si>
+  <si>
+    <t>必需脂酸</t>
+  </si>
+  <si>
+    <t>补救合成途径</t>
+  </si>
+  <si>
+    <t>氮平衡</t>
+  </si>
+  <si>
+    <t>腐败作用</t>
+  </si>
+  <si>
+    <t>一碳单位</t>
+  </si>
+  <si>
+    <t>呼吸链</t>
+  </si>
+  <si>
+    <t>P/O比值</t>
+  </si>
+  <si>
+    <t>ATP合酶</t>
+  </si>
+  <si>
+    <t>全酶</t>
+  </si>
+  <si>
+    <t>米氏常数Km</t>
+  </si>
+  <si>
+    <t>同工酶</t>
+  </si>
+  <si>
+    <t>必需基团</t>
+  </si>
+  <si>
+    <t>糖异生</t>
+  </si>
+  <si>
+    <t>Cori循环</t>
+  </si>
+  <si>
+    <t>蛋白质的一级结构</t>
+  </si>
+  <si>
+    <t>蛋白质的等电点</t>
+  </si>
+  <si>
+    <t>肽键</t>
+  </si>
+  <si>
+    <t>亚基</t>
+  </si>
+  <si>
+    <t>蛋白质组</t>
+  </si>
+  <si>
+    <t>核酸酶</t>
+  </si>
+  <si>
+    <t>基因组</t>
+  </si>
+  <si>
+    <t>核小体</t>
+  </si>
+  <si>
+    <t>填空题</t>
+  </si>
+  <si>
+    <t>酶的调节可分为()调节和()调节两方面。酶最常见的化学修饰是()。</t>
+  </si>
+  <si>
+    <t>不同蛋白质的含()量颇为相近，平均含量为()%。</t>
+  </si>
+  <si>
+    <t>丙酮酸脱氢酶复合体的辅酶有()、()、()、() 和() 。</t>
+  </si>
+  <si>
+    <t>磷酸戊糖途径的主要生理意义在于生成()和() 。</t>
+  </si>
+  <si>
+    <t>6-磷酸果糖激酶-1的变构激活剂有()、()、()和() 。</t>
+  </si>
+  <si>
+    <t>脂酸β-氧化的4步反应是()、()、()和()。</t>
+  </si>
+  <si>
+    <t>乙酰CoA羧化酶的辅酶是()。</t>
+  </si>
+  <si>
+    <t>催化血浆胆固醇酯化的酶是()，催化细胞内胆固醇酯化的酶是()。</t>
+  </si>
+  <si>
+    <t>嘌呤核苷酸的从头合成在()中进行，反应比较复杂，可分为两个阶段，首先合成()，然后其转变为()与()。</t>
+  </si>
+  <si>
+    <t>在嘌呤核苷酸从头合成中最重要的调节酶是()酶和()酶。</t>
+  </si>
+  <si>
+    <t>体内ATP与GTP的生成交叉调节，以维持二者的平衡。这种调节是由于：IMP→AMP需要()；而IMP→GMP需要()。</t>
+  </si>
+  <si>
+    <t>氨甲喋呤（MTX）干扰核苷酸合成是因为其结构与()相似，并抑制()酶，进而影响一碳单位代谢。</t>
+  </si>
+  <si>
+    <t>在体内积聚可引起痛风症的物质是()。</t>
+  </si>
+  <si>
+    <t>物质代谢调节可分为三级水平，即()水平调节、()水平调节和()水平调节。</t>
+  </si>
+  <si>
+    <t>三大营养物质共同的中间代谢产物是()，它们最后分解的共同代谢途径是()，释出的能量均以()的形式利用。</t>
+  </si>
+  <si>
+    <t>关键酶是指反应体系中催化()向()平衡反应的酶；催化的反应速度()；其活性可决定反应的()。</t>
+  </si>
+  <si>
+    <t>合成血红素的()和()过程均在线粒体中进行，而()过程则在胞液中进行。</t>
+  </si>
+  <si>
+    <t>参与DNA复制的主要酶类是()、()、()、()、()。</t>
+  </si>
+  <si>
+    <t>真核生物帽子结合蛋白复合物包括()、()、()。</t>
+  </si>
+  <si>
+    <t>密码子与反密码子的摆动配对发生在密码子的()位碱基和反密码子的()碱基。</t>
+  </si>
+  <si>
+    <t>细胞内进行RNA转录的场所是()，RNA链合成的方向是()。转录时，DNA基因双链中只有一链能转录合成RNA，此链称为()，另一条链无转录功能，称为() 。</t>
+  </si>
+  <si>
+    <t>结构基因中具有表达活性，能编码相应氨基酸的序列称为()；无表达活性，不能编码相应氨基酸的序列称为()。</t>
+  </si>
+  <si>
+    <t>RNA转录过程分为()、()和()三个阶段。</t>
+  </si>
+  <si>
+    <t>DNA上某段顺序为5＇-ACTAGTCAG-3＇，转录后的mRNA上相应的碱基顺序为()。</t>
+  </si>
+  <si>
+    <t>原核细胞中，多数转录起始区的-35bp区都有一组()序列，而在-10bp附近则有一组()序列。</t>
+  </si>
+  <si>
+    <t>Ribozyme具有酶活性，这是在研究()的rRNA剪接中发现的。</t>
+  </si>
+  <si>
+    <t>哺乳动物核核糖体大亚基的沉降系数为() 。</t>
+  </si>
+  <si>
+    <t>mRNA转录后剪接加工是除去() ，把邻近的()连接起来。</t>
+  </si>
+  <si>
+    <t>基因表达的终产物可以是()，也可以是()。</t>
+  </si>
+  <si>
+    <t>基因表达的方式按对刺激的反应性可分()表达与()表达。</t>
+  </si>
+  <si>
+    <t>决定基因转录基础频率的DNA元件是()，它是()酶的结合位点。</t>
+  </si>
+  <si>
+    <t>原核生物大多数基因表达调控是通过()机制实现的。</t>
+  </si>
+  <si>
+    <t>Lac阻遏蛋白由()基因编码，结合()序列对Lac操纵子起阻遏作用。</t>
+  </si>
+  <si>
+    <t>通常情况下，真核生物细胞只有()%的基因处于有转录活性的状态。</t>
+  </si>
+  <si>
+    <t>可充当克隆载体的DNA分子有()、() 和()。</t>
+  </si>
+  <si>
+    <t>一个完整的基因克隆过程应包括：目的基因的获取，()的选择与改选，()的连接，重组DNA分子()，筛选出感兴趣的()。</t>
+  </si>
+  <si>
+    <t>根据重组DNA时所采用的载体性质不同，导入重组DNA分子的方式有()、()和()等。</t>
+  </si>
+  <si>
+    <t>重组体的筛选中的直接选择法主要有()、() 和() 等。</t>
+  </si>
+  <si>
+    <t>外源性DNA离开染色体是不能复制的。将()与()连接，构成成重组DNA分子后，外源性DNA则可被复制。</t>
+  </si>
+  <si>
+    <t>酶含量的调节主要通过改变酶蛋白()或()以调节细胞内酶的含量，从而调节代谢的速度和强度。</t>
+  </si>
+  <si>
+    <t>问答题</t>
+  </si>
+  <si>
+    <t>简述细胞内小分子第二信使的共同特点。</t>
+  </si>
+  <si>
+    <t>基因重组与基因工程所用载体应具备哪些条件?</t>
+  </si>
+  <si>
+    <t>简述重组DNA技术的基本步骤。</t>
+  </si>
+  <si>
+    <t>简述DNA克隆的基本过程。</t>
+  </si>
+  <si>
+    <t>在真核表达体系中，常用于细胞转染的方法有哪些?</t>
+  </si>
+  <si>
+    <t>目前获取目的基因的主要途径有哪些?</t>
+  </si>
+  <si>
+    <t>简述外源性基因与载体的主要连接方式。</t>
+  </si>
+  <si>
+    <t>一种可靠的DNA诊断学方法应符合哪些条件?</t>
+  </si>
+  <si>
+    <t>简述lac的调节机制。</t>
+  </si>
+  <si>
+    <t>简述反式作用因子的结构和作用特点。</t>
+  </si>
+  <si>
+    <t>简述真核生物基因组的结构特点。</t>
+  </si>
+  <si>
+    <t>试述参与RNA转录的成分及其在转录中的作用。</t>
+  </si>
+  <si>
+    <t>试述原核生物的两种终止转录的方式。</t>
+  </si>
+  <si>
+    <t>核酸酶与核酶有何不同。</t>
+  </si>
+  <si>
+    <t>简述酶变构调节的主要特征、机制及重要生理意义。</t>
+  </si>
+  <si>
+    <t>简述酶变构调节与化学修饰调节的异同点。</t>
+  </si>
+  <si>
+    <t>DNA半保留复制的方式是通过什么实验证明的？请写出该实验的详细过程。</t>
+  </si>
+  <si>
+    <t>原核生物DNA复制过程中都需要哪些酶和蛋白因子？并简要叙述它们在复制过程中说的功能。</t>
+  </si>
+  <si>
+    <t>请举例说明DNA损伤突变的主要形式。</t>
+  </si>
+  <si>
+    <t>DNA损伤修复的方式有哪些？人体内最主要的方式是哪个？并叙述其过程。</t>
+  </si>
+  <si>
+    <t>核苷酸在体内有哪些生理的功能？</t>
+  </si>
+  <si>
+    <t>简述PRPP在核苷酸合成中的重要作用。</t>
+  </si>
+  <si>
+    <t>比较氨基甲酰磷酸合成酶Ⅰ、Ⅱ的异同。</t>
+  </si>
+  <si>
+    <t>血浆脂蛋白的分类、来源及主要功能。</t>
+  </si>
+  <si>
+    <t>简述磷脂酶的种类及其作用特点。</t>
+  </si>
+  <si>
+    <t>乙酰CoA在脂类代谢中的来源与去路。</t>
   </si>
   <si>
     <r>
@@ -1234,7 +1233,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">简述谷氨酸在体内转变成尿素、CO</t>
+      <t>简述谷氨酸在体内转变成尿素、CO</t>
     </r>
     <r>
       <rPr>
@@ -1245,7 +1244,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1255,78 +1254,63 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">与水的主要代谢途径。</t>
+      <t>与水的主要代谢途径。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">说明高氨血症导致昏迷的生化基础。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述呼吸链的组成及各复合体的主要作用。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述NADH氧化呼吸链，如鱼藤酮存在时其结果如何？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述糖酵解的关键酶反应。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">写出TCA循环中的脱氢酶促反应。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比较糖的有氧氧化与无氧氧化的特点。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何谓酶的特异性（专一性），举例说明酶的特异性有几种？。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何谓酶促反应动力学？影响酶促反应速率的因素有哪些？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述常用的蛋白质分离纯化方法？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述谷胱甘肽的结构特点和功能？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">哪些因素影响蛋白质α-螺旋结构的形成或稳定？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">细胞内主要的RNA及其主要功能。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简述Chargaff规则。</t>
+    <t>说明高氨血症导致昏迷的生化基础。</t>
+  </si>
+  <si>
+    <t>简述呼吸链的组成及各复合体的主要作用。</t>
+  </si>
+  <si>
+    <t>简述NADH氧化呼吸链，如鱼藤酮存在时其结果如何？</t>
+  </si>
+  <si>
+    <t>简述糖酵解的关键酶反应。</t>
+  </si>
+  <si>
+    <t>写出TCA循环中的脱氢酶促反应。</t>
+  </si>
+  <si>
+    <t>比较糖的有氧氧化与无氧氧化的特点。</t>
+  </si>
+  <si>
+    <t>何谓酶的特异性（专一性），举例说明酶的特异性有几种？。</t>
+  </si>
+  <si>
+    <t>何谓酶促反应动力学？影响酶促反应速率的因素有哪些？</t>
+  </si>
+  <si>
+    <t>简述常用的蛋白质分离纯化方法？</t>
+  </si>
+  <si>
+    <t>简述谷胱甘肽的结构特点和功能？</t>
+  </si>
+  <si>
+    <t>哪些因素影响蛋白质α-螺旋结构的形成或稳定？</t>
+  </si>
+  <si>
+    <t>细胞内主要的RNA及其主要功能。</t>
+  </si>
+  <si>
+    <t>简述Chargaff规则。</t>
+  </si>
+  <si>
+    <t>CO2〓-CH3〓-CHO〓＝CH2〓-CH＝NH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
@@ -1360,91 +1344,356 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A202" activeCellId="0" sqref="A202"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.69"/>
+    <col min="1" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="61.375" customWidth="1"/>
+    <col min="5" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="27">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1486,7 +1735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +1749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" ht="27">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1514,7 +1763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" ht="27">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1528,7 +1777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" ht="40.5">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1542,7 +1791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1556,7 +1805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" ht="27">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1570,7 +1819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1584,7 +1833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1598,7 +1847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" ht="27">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1612,7 +1861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" ht="40.5">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1626,7 +1875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="40.5">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1640,7 +1889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" ht="27">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1654,7 +1903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" ht="40.5">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" ht="40.5">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1682,7 +1931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1696,7 +1945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" ht="40.5">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +1959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" ht="40.5">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1724,7 +1973,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" ht="27">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" ht="27">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1752,7 +2001,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" ht="27">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +2015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" ht="29.25">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
@@ -1780,7 +2029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" ht="27">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1794,7 +2043,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1808,7 +2057,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" ht="27">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1822,7 +2071,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" ht="16.5">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +2085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" ht="27">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +2099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" ht="27">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -1864,7 +2113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" ht="27">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -1878,7 +2127,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" ht="27">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -1892,7 +2141,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" ht="40.5">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -1906,7 +2155,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4" ht="15.75">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
@@ -1920,7 +2169,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" ht="54">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -1934,7 +2183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" ht="54">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -1948,7 +2197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -1958,12 +2207,11 @@
       <c r="C37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="2" t="e">
-        <f aca="false">#NAME?</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -1977,7 +2225,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:4" ht="27">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +2239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:4" ht="40.5">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +2253,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:4" ht="27">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -2019,7 +2267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" ht="40.5">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -2033,7 +2281,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" ht="27">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -2047,7 +2295,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" ht="27">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
@@ -2061,7 +2309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" ht="40.5">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -2075,7 +2323,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:4" ht="27">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -2089,7 +2337,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:4" ht="27">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -2103,7 +2351,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:4" ht="27">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
@@ -2117,7 +2365,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:4" ht="27">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
@@ -2131,7 +2379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2393,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:4" ht="27">
       <c r="A51" s="2" t="s">
         <v>4</v>
       </c>
@@ -2159,7 +2407,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:4" ht="54">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -2173,7 +2421,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:4" ht="27">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -2187,7 +2435,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:4" ht="40.5">
       <c r="A54" s="2" t="s">
         <v>4</v>
       </c>
@@ -2201,7 +2449,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:4" ht="27">
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
@@ -2215,7 +2463,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:4" ht="54">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2477,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:4" ht="54">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -2243,7 +2491,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:4" ht="27">
       <c r="A58" s="2" t="s">
         <v>4</v>
       </c>
@@ -2257,7 +2505,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:4" ht="27">
       <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
@@ -2271,7 +2519,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:4" ht="15.75">
       <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
@@ -2285,7 +2533,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:4" ht="40.5">
       <c r="A61" s="2" t="s">
         <v>4</v>
       </c>
@@ -2299,7 +2547,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:4" ht="27">
       <c r="A62" s="2" t="s">
         <v>4</v>
       </c>
@@ -2313,7 +2561,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:4" ht="27">
       <c r="A63" s="2" t="s">
         <v>4</v>
       </c>
@@ -2327,7 +2575,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:4" ht="27">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
@@ -2341,7 +2589,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:4" ht="54">
       <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
@@ -2355,7 +2603,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:4" ht="27">
       <c r="A66" s="2" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +2617,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:4" ht="27">
       <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
@@ -2383,7 +2631,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:4" ht="40.5">
       <c r="A68" s="2" t="s">
         <v>4</v>
       </c>
@@ -2397,7 +2645,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:4" ht="94.5">
       <c r="A69" s="2" t="s">
         <v>4</v>
       </c>
@@ -2411,7 +2659,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:4" ht="40.5">
       <c r="A70" s="2" t="s">
         <v>4</v>
       </c>
@@ -2425,7 +2673,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:4" ht="27">
       <c r="A71" s="2" t="s">
         <v>4</v>
       </c>
@@ -2439,7 +2687,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:4" ht="54">
       <c r="A72" s="2" t="s">
         <v>4</v>
       </c>
@@ -2453,7 +2701,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:4" ht="27">
       <c r="A73" s="2" t="s">
         <v>4</v>
       </c>
@@ -2467,7 +2715,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:4" ht="40.5">
       <c r="A74" s="2" t="s">
         <v>4</v>
       </c>
@@ -2481,7 +2729,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:4" ht="40.5">
       <c r="A75" s="2" t="s">
         <v>4</v>
       </c>
@@ -2495,7 +2743,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:4" ht="27">
       <c r="A76" s="2" t="s">
         <v>4</v>
       </c>
@@ -2509,7 +2757,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:4" ht="40.5">
       <c r="A77" s="2" t="s">
         <v>4</v>
       </c>
@@ -2523,7 +2771,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
@@ -2537,7 +2785,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:4" ht="27">
       <c r="A79" s="2" t="s">
         <v>4</v>
       </c>
@@ -2551,7 +2799,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:4" ht="27">
       <c r="A80" s="2" t="s">
         <v>4</v>
       </c>
@@ -2565,7 +2813,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
         <v>4</v>
       </c>
@@ -2579,7 +2827,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
         <v>4</v>
       </c>
@@ -2591,7 +2839,7 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>4</v>
       </c>
@@ -2603,7 +2851,7 @@
       </c>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
         <v>4</v>
       </c>
@@ -2615,7 +2863,7 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
         <v>4</v>
       </c>
@@ -2627,7 +2875,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
         <v>4</v>
       </c>
@@ -2639,7 +2887,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
         <v>4</v>
       </c>
@@ -2651,7 +2899,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
         <v>4</v>
       </c>
@@ -2663,7 +2911,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
         <v>4</v>
       </c>
@@ -2675,7 +2923,7 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
         <v>4</v>
       </c>
@@ -2687,7 +2935,7 @@
       </c>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
@@ -2699,7 +2947,7 @@
       </c>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
         <v>4</v>
       </c>
@@ -2711,7 +2959,7 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
         <v>4</v>
       </c>
@@ -2723,7 +2971,7 @@
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
         <v>4</v>
       </c>
@@ -2735,7 +2983,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
         <v>4</v>
       </c>
@@ -2747,7 +2995,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -2759,7 +3007,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
         <v>4</v>
       </c>
@@ -2771,7 +3019,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
         <v>4</v>
       </c>
@@ -2783,7 +3031,7 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
         <v>4</v>
       </c>
@@ -2795,7 +3043,7 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
         <v>4</v>
       </c>
@@ -2807,7 +3055,7 @@
       </c>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -2819,7 +3067,7 @@
       </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
         <v>4</v>
       </c>
@@ -2831,7 +3079,7 @@
       </c>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
         <v>4</v>
       </c>
@@ -2843,7 +3091,7 @@
       </c>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
         <v>4</v>
       </c>
@@ -2855,7 +3103,7 @@
       </c>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
         <v>4</v>
       </c>
@@ -2867,7 +3115,7 @@
       </c>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
         <v>4</v>
       </c>
@@ -2879,7 +3127,7 @@
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
         <v>4</v>
       </c>
@@ -2891,7 +3139,7 @@
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
         <v>4</v>
       </c>
@@ -2903,7 +3151,7 @@
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
         <v>4</v>
       </c>
@@ -2915,7 +3163,7 @@
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
         <v>4</v>
       </c>
@@ -2927,7 +3175,7 @@
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
         <v>4</v>
       </c>
@@ -2939,7 +3187,7 @@
       </c>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
         <v>4</v>
       </c>
@@ -2951,7 +3199,7 @@
       </c>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
         <v>4</v>
       </c>
@@ -2963,7 +3211,7 @@
       </c>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
         <v>4</v>
       </c>
@@ -2975,7 +3223,7 @@
       </c>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
         <v>4</v>
       </c>
@@ -2987,7 +3235,7 @@
       </c>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
         <v>4</v>
       </c>
@@ -2999,7 +3247,7 @@
       </c>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
         <v>4</v>
       </c>
@@ -3011,7 +3259,7 @@
       </c>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
         <v>4</v>
       </c>
@@ -3023,7 +3271,7 @@
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
         <v>4</v>
       </c>
@@ -3035,7 +3283,7 @@
       </c>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
         <v>4</v>
       </c>
@@ -3047,7 +3295,7 @@
       </c>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
         <v>4</v>
       </c>
@@ -3059,7 +3307,7 @@
       </c>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:4" ht="40.5">
       <c r="A122" s="2" t="s">
         <v>4</v>
       </c>
@@ -3071,7 +3319,7 @@
       </c>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:4" ht="27">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
@@ -3083,7 +3331,7 @@
       </c>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:4" ht="27">
       <c r="A124" s="2" t="s">
         <v>4</v>
       </c>
@@ -3095,7 +3343,7 @@
       </c>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:4" ht="27">
       <c r="A125" s="2" t="s">
         <v>4</v>
       </c>
@@ -3107,7 +3355,7 @@
       </c>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:4" ht="40.5">
       <c r="A126" s="2" t="s">
         <v>4</v>
       </c>
@@ -3119,7 +3367,7 @@
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:4" ht="40.5">
       <c r="A127" s="2" t="s">
         <v>4</v>
       </c>
@@ -3131,7 +3379,7 @@
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
         <v>4</v>
       </c>
@@ -3143,7 +3391,7 @@
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:4" ht="40.5">
       <c r="A129" s="2" t="s">
         <v>4</v>
       </c>
@@ -3155,7 +3403,7 @@
       </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:4" ht="54">
       <c r="A130" s="2" t="s">
         <v>4</v>
       </c>
@@ -3167,7 +3415,7 @@
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:4" ht="27">
       <c r="A131" s="2" t="s">
         <v>4</v>
       </c>
@@ -3179,7 +3427,7 @@
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:4" ht="54">
       <c r="A132" s="2" t="s">
         <v>4</v>
       </c>
@@ -3191,7 +3439,7 @@
       </c>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:4" ht="54">
       <c r="A133" s="2" t="s">
         <v>4</v>
       </c>
@@ -3203,7 +3451,7 @@
       </c>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:4" ht="27">
       <c r="A134" s="2" t="s">
         <v>4</v>
       </c>
@@ -3215,7 +3463,7 @@
       </c>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:4" ht="40.5">
       <c r="A135" s="2" t="s">
         <v>4</v>
       </c>
@@ -3227,7 +3475,7 @@
       </c>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:4" ht="54">
       <c r="A136" s="2" t="s">
         <v>4</v>
       </c>
@@ -3239,7 +3487,7 @@
       </c>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:4" ht="54">
       <c r="A137" s="2" t="s">
         <v>4</v>
       </c>
@@ -3251,7 +3499,7 @@
       </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:4" ht="40.5">
       <c r="A138" s="2" t="s">
         <v>4</v>
       </c>
@@ -3263,7 +3511,7 @@
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:4" ht="27">
       <c r="A139" s="2" t="s">
         <v>4</v>
       </c>
@@ -3275,7 +3523,7 @@
       </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:4" ht="27">
       <c r="A140" s="2" t="s">
         <v>4</v>
       </c>
@@ -3287,7 +3535,7 @@
       </c>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:4" ht="40.5">
       <c r="A141" s="2" t="s">
         <v>4</v>
       </c>
@@ -3299,7 +3547,7 @@
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:4" ht="81">
       <c r="A142" s="2" t="s">
         <v>4</v>
       </c>
@@ -3311,7 +3559,7 @@
       </c>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:4" ht="54">
       <c r="A143" s="2" t="s">
         <v>4</v>
       </c>
@@ -3323,7 +3571,7 @@
       </c>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:4" ht="27">
       <c r="A144" s="2" t="s">
         <v>4</v>
       </c>
@@ -3335,7 +3583,7 @@
       </c>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:4" ht="54">
       <c r="A145" s="2" t="s">
         <v>4</v>
       </c>
@@ -3347,7 +3595,7 @@
       </c>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:4" ht="54">
       <c r="A146" s="2" t="s">
         <v>4</v>
       </c>
@@ -3359,7 +3607,7 @@
       </c>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:4" ht="27">
       <c r="A147" s="2" t="s">
         <v>4</v>
       </c>
@@ -3371,7 +3619,7 @@
       </c>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:4" ht="27">
       <c r="A148" s="2" t="s">
         <v>4</v>
       </c>
@@ -3383,7 +3631,7 @@
       </c>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:4" ht="27">
       <c r="A149" s="2" t="s">
         <v>4</v>
       </c>
@@ -3395,7 +3643,7 @@
       </c>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:4" ht="27">
       <c r="A150" s="2" t="s">
         <v>4</v>
       </c>
@@ -3407,7 +3655,7 @@
       </c>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:4" ht="27">
       <c r="A151" s="2" t="s">
         <v>4</v>
       </c>
@@ -3419,7 +3667,7 @@
       </c>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:4" ht="40.5">
       <c r="A152" s="2" t="s">
         <v>4</v>
       </c>
@@ -3431,7 +3679,7 @@
       </c>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:4" ht="27">
       <c r="A153" s="2" t="s">
         <v>4</v>
       </c>
@@ -3443,7 +3691,7 @@
       </c>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:4" ht="40.5">
       <c r="A154" s="2" t="s">
         <v>4</v>
       </c>
@@ -3455,7 +3703,7 @@
       </c>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:4" ht="40.5">
       <c r="A155" s="2" t="s">
         <v>4</v>
       </c>
@@ -3467,7 +3715,7 @@
       </c>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:4" ht="27">
       <c r="A156" s="2" t="s">
         <v>4</v>
       </c>
@@ -3479,7 +3727,7 @@
       </c>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:4" ht="67.5">
       <c r="A157" s="2" t="s">
         <v>4</v>
       </c>
@@ -3491,7 +3739,7 @@
       </c>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:4" ht="40.5">
       <c r="A158" s="2" t="s">
         <v>4</v>
       </c>
@@ -3503,7 +3751,7 @@
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:4" ht="27">
       <c r="A159" s="2" t="s">
         <v>4</v>
       </c>
@@ -3515,7 +3763,7 @@
       </c>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:4" ht="54">
       <c r="A160" s="2" t="s">
         <v>4</v>
       </c>
@@ -3527,7 +3775,7 @@
       </c>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:4" ht="54">
       <c r="A161" s="2" t="s">
         <v>4</v>
       </c>
@@ -3539,7 +3787,7 @@
       </c>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:4" ht="27">
       <c r="A162" s="2" t="s">
         <v>4</v>
       </c>
@@ -3551,7 +3799,7 @@
       </c>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:4" ht="27">
       <c r="A163" s="2" t="s">
         <v>4</v>
       </c>
@@ -3563,7 +3811,7 @@
       </c>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:4" ht="27">
       <c r="A164" s="2" t="s">
         <v>4</v>
       </c>
@@ -3575,7 +3823,7 @@
       </c>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
         <v>4</v>
       </c>
@@ -3587,7 +3835,7 @@
       </c>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:4" ht="27">
       <c r="A166" s="2" t="s">
         <v>4</v>
       </c>
@@ -3599,7 +3847,7 @@
       </c>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:4" ht="27">
       <c r="A167" s="2" t="s">
         <v>4</v>
       </c>
@@ -3611,7 +3859,7 @@
       </c>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:4" ht="27">
       <c r="A168" s="2" t="s">
         <v>4</v>
       </c>
@@ -3623,7 +3871,7 @@
       </c>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:4" ht="27">
       <c r="A169" s="2" t="s">
         <v>4</v>
       </c>
@@ -3635,7 +3883,7 @@
       </c>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
         <v>4</v>
       </c>
@@ -3647,7 +3895,7 @@
       </c>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:4" ht="27">
       <c r="A171" s="2" t="s">
         <v>4</v>
       </c>
@@ -3659,7 +3907,7 @@
       </c>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:4" ht="27">
       <c r="A172" s="2" t="s">
         <v>4</v>
       </c>
@@ -3671,7 +3919,7 @@
       </c>
       <c r="D172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:4" ht="27">
       <c r="A173" s="2" t="s">
         <v>4</v>
       </c>
@@ -3683,7 +3931,7 @@
       </c>
       <c r="D173" s="2"/>
     </row>
-    <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:4" ht="27">
       <c r="A174" s="2" t="s">
         <v>4</v>
       </c>
@@ -3695,7 +3943,7 @@
       </c>
       <c r="D174" s="2"/>
     </row>
-    <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
         <v>4</v>
       </c>
@@ -3707,7 +3955,7 @@
       </c>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:4" ht="27">
       <c r="A176" s="2" t="s">
         <v>4</v>
       </c>
@@ -3719,7 +3967,7 @@
       </c>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:4" ht="27">
       <c r="A177" s="2" t="s">
         <v>4</v>
       </c>
@@ -3731,7 +3979,7 @@
       </c>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:4" ht="40.5">
       <c r="A178" s="2" t="s">
         <v>4</v>
       </c>
@@ -3743,7 +3991,7 @@
       </c>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:4" ht="54">
       <c r="A179" s="2" t="s">
         <v>4</v>
       </c>
@@ -3755,7 +4003,7 @@
       </c>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:4" ht="27">
       <c r="A180" s="2" t="s">
         <v>4</v>
       </c>
@@ -3767,7 +4015,7 @@
       </c>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:4" ht="40.5">
       <c r="A181" s="2" t="s">
         <v>4</v>
       </c>
@@ -3779,7 +4027,7 @@
       </c>
       <c r="D181" s="2"/>
     </row>
-    <row r="182" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:4" ht="27">
       <c r="A182" s="2" t="s">
         <v>4</v>
       </c>
@@ -3791,7 +4039,7 @@
       </c>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:4" ht="27">
       <c r="A183" s="2" t="s">
         <v>4</v>
       </c>
@@ -3803,7 +4051,7 @@
       </c>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:4" ht="27">
       <c r="A184" s="2" t="s">
         <v>4</v>
       </c>
@@ -3815,7 +4063,7 @@
       </c>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:4" ht="27">
       <c r="A185" s="2" t="s">
         <v>4</v>
       </c>
@@ -3827,7 +4075,7 @@
       </c>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:4" ht="27">
       <c r="A186" s="2" t="s">
         <v>4</v>
       </c>
@@ -3839,7 +4087,7 @@
       </c>
       <c r="D186" s="2"/>
     </row>
-    <row r="187" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:4" ht="27">
       <c r="A187" s="2" t="s">
         <v>4</v>
       </c>
@@ -3851,7 +4099,7 @@
       </c>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:4" ht="30">
       <c r="A188" s="2" t="s">
         <v>4</v>
       </c>
@@ -3863,7 +4111,7 @@
       </c>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:4" ht="27">
       <c r="A189" s="2" t="s">
         <v>4</v>
       </c>
@@ -3875,7 +4123,7 @@
       </c>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:4" ht="27">
       <c r="A190" s="2" t="s">
         <v>4</v>
       </c>
@@ -3887,7 +4135,7 @@
       </c>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:4" ht="27">
       <c r="A191" s="2" t="s">
         <v>4</v>
       </c>
@@ -3899,7 +4147,7 @@
       </c>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:4">
       <c r="A192" s="2" t="s">
         <v>4</v>
       </c>
@@ -3911,7 +4159,7 @@
       </c>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:4" ht="27">
       <c r="A193" s="2" t="s">
         <v>4</v>
       </c>
@@ -3923,7 +4171,7 @@
       </c>
       <c r="D193" s="2"/>
     </row>
-    <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:4" ht="27">
       <c r="A194" s="2" t="s">
         <v>4</v>
       </c>
@@ -3935,7 +4183,7 @@
       </c>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:4" ht="40.5">
       <c r="A195" s="2" t="s">
         <v>4</v>
       </c>
@@ -3947,7 +4195,7 @@
       </c>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:4" ht="27">
       <c r="A196" s="2" t="s">
         <v>4</v>
       </c>
@@ -3959,7 +4207,7 @@
       </c>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:4" ht="27">
       <c r="A197" s="2" t="s">
         <v>4</v>
       </c>
@@ -3971,7 +4219,7 @@
       </c>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:4" ht="27">
       <c r="A198" s="2" t="s">
         <v>4</v>
       </c>
@@ -3983,7 +4231,7 @@
       </c>
       <c r="D198" s="2"/>
     </row>
-    <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:4" ht="27">
       <c r="A199" s="2" t="s">
         <v>4</v>
       </c>
@@ -3995,7 +4243,7 @@
       </c>
       <c r="D199" s="2"/>
     </row>
-    <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:4" ht="27">
       <c r="A200" s="2" t="s">
         <v>4</v>
       </c>
@@ -4007,7 +4255,7 @@
       </c>
       <c r="D200" s="2"/>
     </row>
-    <row r="201" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:4">
       <c r="A201" s="2" t="s">
         <v>4</v>
       </c>
@@ -4019,197 +4267,40 @@
       </c>
       <c r="D201" s="2"/>
     </row>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.69"/>
+    <col min="1" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.69"/>
+    <col min="1" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>